--- a/data/trans_orig/P14C23_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3058A802-C882-4AE5-8736-28BE9F9BDE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7909CFE2-97D4-4927-9078-858BEC07B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE080768-5FAF-4500-877D-BBD749D757A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4550ACFD-1AA5-4D1C-991D-151FDDB41334}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="202">
   <si>
     <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2015 (Tasa respuesta: 4,16%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>73,18%</t>
   </si>
   <si>
-    <t>36,0%</t>
+    <t>35,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>64,0%</t>
+    <t>64,72%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +140,13 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>23,34%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>14,45%</t>
+    <t>15,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,64 +164,64 @@
     <t>33,06%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>80,78%</t>
+    <t>80,37%</t>
   </si>
   <si>
     <t>57,28%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>81,14%</t>
+    <t>81,04%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>29,64%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -233,25 +233,25 @@
     <t>57,95%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>32,05%</t>
+    <t>27,48%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -260,46 +260,46 @@
     <t>73,93%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>32,12%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>70,29%</t>
+    <t>67,88%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>28,38%</t>
+    <t>28,47%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -308,13 +308,13 @@
     <t>11,62%</t>
   </si>
   <si>
-    <t>35,33%</t>
+    <t>35,2%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>25,9%</t>
+    <t>25,28%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -350,19 +350,19 @@
     <t>54,73%</t>
   </si>
   <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>57,19%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>25,72%</t>
@@ -374,19 +374,19 @@
     <t>41,53%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
   </si>
   <si>
     <t>39,54%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -395,85 +395,91 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>19,26%</t>
+    <t>18,65%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>19,09%</t>
+    <t>19,32%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>26,39%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -482,67 +488,64 @@
     <t>58,6%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>56,33%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>56,92%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
+    <t>47,34%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>27,11%</t>
+    <t>25,71%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>20,14%</t>
@@ -551,91 +554,91 @@
     <t>7,53%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1050,7 +1053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A3CD42-D47D-4FB8-A313-BE75EA0AB0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5D4B75-C6BB-4089-AF80-C31E4D191519}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2468,13 +2471,13 @@
         <v>5441</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2483,13 +2486,13 @@
         <v>6566</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2507,13 @@
         <v>4049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2519,13 +2522,13 @@
         <v>2421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2534,13 +2537,13 @@
         <v>6470</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,7 +2599,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2608,13 +2611,13 @@
         <v>12708</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -2623,13 +2626,13 @@
         <v>34725</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -2638,13 +2641,13 @@
         <v>47432</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2662,13 @@
         <v>7893</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -2674,13 +2677,13 @@
         <v>21733</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M33" s="7">
         <v>27</v>
@@ -2689,13 +2692,13 @@
         <v>29625</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2713,13 @@
         <v>1086</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2725,13 +2728,13 @@
         <v>5186</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -2740,13 +2743,13 @@
         <v>6272</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2817,13 @@
         <v>42888</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H36" s="7">
         <v>137</v>
@@ -2829,13 +2832,13 @@
         <v>153577</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>179</v>
@@ -2844,13 +2847,13 @@
         <v>196465</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2868,13 @@
         <v>16536</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -2880,13 +2883,13 @@
         <v>64454</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>75</v>
@@ -2895,13 +2898,13 @@
         <v>80990</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2919,13 @@
         <v>6286</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>14</v>
@@ -2931,13 +2934,13 @@
         <v>15952</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -2946,13 +2949,13 @@
         <v>22239</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +3011,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C23_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7909CFE2-97D4-4927-9078-858BEC07B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E072ED-3F0D-489C-9C0F-1E9FDEEA79C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4550ACFD-1AA5-4D1C-991D-151FDDB41334}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B4F9869-2CE1-4347-90CE-915707BF6B97}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="202">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2015 (Tasa respuesta: 4,16%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="201">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2016 (Tasa respuesta: 4,16%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>73,18%</t>
   </si>
   <si>
-    <t>35,28%</t>
+    <t>32,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>64,72%</t>
+    <t>67,1%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +140,13 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>23,29%</t>
+    <t>19,91%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>15,07%</t>
+    <t>17,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,70 +158,70 @@
     <t>39,21%</t>
   </si>
   <si>
-    <t>80,46%</t>
+    <t>80,95%</t>
   </si>
   <si>
     <t>33,06%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>80,37%</t>
+    <t>87,37%</t>
   </si>
   <si>
     <t>57,28%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>81,04%</t>
+    <t>81,66%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>29,64%</t>
+    <t>33,14%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -233,25 +233,25 @@
     <t>57,95%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>27,48%</t>
+    <t>31,95%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -260,46 +260,46 @@
     <t>73,93%</t>
   </si>
   <si>
-    <t>32,12%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>67,88%</t>
+    <t>68,89%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>28,47%</t>
+    <t>35,97%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -308,13 +308,13 @@
     <t>11,62%</t>
   </si>
   <si>
-    <t>35,2%</t>
+    <t>30,59%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>25,28%</t>
+    <t>25,14%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -344,49 +344,43 @@
     <t>74,28%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
     <t>54,73%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>57,19%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
   </si>
   <si>
     <t>39,54%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -395,13 +389,13 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>18,65%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>16,8%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,76 +404,76 @@
     <t>50,56%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>46,04%</t>
+    <t>47,37%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>19,32%</t>
+    <t>18,84%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -488,157 +482,160 @@
     <t>58,6%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>56,33%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
   </si>
   <si>
     <t>56,92%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>47,34%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>25,71%</t>
+    <t>23,07%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1053,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5D4B75-C6BB-4089-AF80-C31E4D191519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF5E50-19AF-49F0-9A19-F97C2C2F0F60}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2202,7 +2199,7 @@
         <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2214,13 +2211,13 @@
         <v>14027</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -2229,13 +2226,13 @@
         <v>16774</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2247,13 @@
         <v>952</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2265,13 +2262,13 @@
         <v>10644</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2280,13 +2277,13 @@
         <v>11596</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2304,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2316,13 +2313,13 @@
         <v>960</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2331,13 +2328,13 @@
         <v>960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,7 +2390,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2405,13 +2402,13 @@
         <v>5291</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -2420,13 +2417,13 @@
         <v>31715</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -2435,13 +2432,13 @@
         <v>37006</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2453,13 @@
         <v>1125</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2471,13 +2468,13 @@
         <v>5441</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2486,13 +2483,13 @@
         <v>6566</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2504,13 @@
         <v>4049</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2522,13 +2519,13 @@
         <v>2421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2537,13 +2534,13 @@
         <v>6470</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,7 +2596,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2611,13 +2608,13 @@
         <v>12708</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -2626,13 +2623,13 @@
         <v>34725</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -2641,13 +2638,13 @@
         <v>47432</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2659,13 @@
         <v>7893</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -2677,13 +2674,13 @@
         <v>21733</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M33" s="7">
         <v>27</v>
@@ -2692,13 +2689,13 @@
         <v>29625</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2710,13 @@
         <v>1086</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2728,13 +2725,13 @@
         <v>5186</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -2743,13 +2740,13 @@
         <v>6272</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2814,13 @@
         <v>42888</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H36" s="7">
         <v>137</v>
@@ -2832,13 +2829,13 @@
         <v>153577</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>179</v>
@@ -2847,13 +2844,13 @@
         <v>196465</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2865,13 @@
         <v>16536</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -2883,13 +2880,13 @@
         <v>64454</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>75</v>
@@ -2898,13 +2895,13 @@
         <v>80990</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2916,13 @@
         <v>6286</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>14</v>
@@ -2934,13 +2931,13 @@
         <v>15952</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -2949,13 +2946,13 @@
         <v>22239</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,7 +3008,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
